--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeValidateMoneyMin.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/RechargeValidateMoneyMin.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -80,10 +80,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getCorrectLoginPassword</t>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +485,8 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -494,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
